--- a/document/docs/pg0002/アプリケーション詳細設計書.xlsx
+++ b/document/docs/pg0002/アプリケーション詳細設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\pythonbase\document\docs\pg0002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\document\docs\pg0002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0D9915-8C9C-40E3-B328-735E9F8D2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27030A14-CF01-4B4B-8F4F-9BCC790C450C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{B7C0FE37-24B5-4B6B-86B1-54C95A5D177E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{B7C0FE37-24B5-4B6B-86B1-54C95A5D177E}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>プログラムコード</t>
     <phoneticPr fontId="1"/>
@@ -266,26 +266,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.引数</t>
-    <rPh sb="2" eb="4">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>引数名</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>型</t>
-    <rPh sb="0" eb="1">
-      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -572,13 +558,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>型なし</t>
-    <rPh sb="0" eb="1">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>こんにちわサザナミインコさん</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -597,6 +576,20 @@
   </si>
   <si>
     <t>main.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.コマンド引数</t>
+    <rPh sb="6" eb="8">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1153,7 +1146,7 @@
   <sheetData>
     <row r="3" spans="3:97" ht="32.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1476,7 +1469,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2530,6 +2523,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:CQ4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:CQ5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:CQ6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:CQ7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:CQ8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:CQ9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:CQ10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:CQ11"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:CQ15"/>
     <mergeCell ref="B12:E12"/>
@@ -2538,23 +2548,6 @@
     <mergeCell ref="F13:CQ13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:CQ14"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:CQ9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:CQ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:CQ11"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:CQ6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:CQ7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:CQ8"/>
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:CQ4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:CQ5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2565,7 +2558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9CCDD2-0A8C-4305-8840-DD01C56B8EC0}">
   <dimension ref="B2:CS24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:CR2"/>
     </sheetView>
   </sheetViews>
@@ -2687,7 +2680,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -2790,7 +2783,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -2821,7 +2814,7 @@
       <c r="AQ5" s="12"/>
       <c r="AR5" s="13"/>
       <c r="AS5" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT5" s="10"/>
       <c r="AU5" s="10"/>
@@ -3095,7 +3088,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
@@ -3181,7 +3174,7 @@
     </row>
     <row r="9" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -3196,7 +3189,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -3940,34 +3933,19 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="BW23:CM23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:W24"/>
-    <mergeCell ref="X24:AN24"/>
-    <mergeCell ref="AO24:BE24"/>
-    <mergeCell ref="BF24:BV24"/>
-    <mergeCell ref="BW24:CM24"/>
-    <mergeCell ref="X23:AN23"/>
-    <mergeCell ref="AO23:BE23"/>
-    <mergeCell ref="BF23:BV23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:W23"/>
-    <mergeCell ref="AO18:BE18"/>
-    <mergeCell ref="G12:W12"/>
-    <mergeCell ref="BW22:CM22"/>
-    <mergeCell ref="X22:AN22"/>
-    <mergeCell ref="AO22:BE22"/>
-    <mergeCell ref="BF22:BV22"/>
-    <mergeCell ref="AO19:BE19"/>
-    <mergeCell ref="AO15:BE15"/>
-    <mergeCell ref="G15:W15"/>
-    <mergeCell ref="X15:AN15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:W18"/>
-    <mergeCell ref="X18:AN18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:W19"/>
-    <mergeCell ref="X19:AN19"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="G14:W14"/>
+    <mergeCell ref="X14:AN14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="X12:AN12"/>
+    <mergeCell ref="G13:W13"/>
+    <mergeCell ref="X13:AN13"/>
+    <mergeCell ref="AO12:BE12"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="P9:AR9"/>
+    <mergeCell ref="AS5:CS9"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="G22:W22"/>
     <mergeCell ref="C15:F15"/>
@@ -3984,19 +3962,34 @@
     <mergeCell ref="C7:O7"/>
     <mergeCell ref="P7:AR7"/>
     <mergeCell ref="C8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="G14:W14"/>
-    <mergeCell ref="X14:AN14"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="X12:AN12"/>
-    <mergeCell ref="G13:W13"/>
-    <mergeCell ref="X13:AN13"/>
-    <mergeCell ref="AO12:BE12"/>
-    <mergeCell ref="C9:O9"/>
-    <mergeCell ref="P9:AR9"/>
-    <mergeCell ref="AS5:CS9"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:W18"/>
+    <mergeCell ref="X18:AN18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:W19"/>
+    <mergeCell ref="X19:AN19"/>
+    <mergeCell ref="AO18:BE18"/>
+    <mergeCell ref="G12:W12"/>
+    <mergeCell ref="BW22:CM22"/>
+    <mergeCell ref="X22:AN22"/>
+    <mergeCell ref="AO22:BE22"/>
+    <mergeCell ref="BF22:BV22"/>
+    <mergeCell ref="AO19:BE19"/>
+    <mergeCell ref="AO15:BE15"/>
+    <mergeCell ref="G15:W15"/>
+    <mergeCell ref="X15:AN15"/>
+    <mergeCell ref="BW23:CM23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:W24"/>
+    <mergeCell ref="X24:AN24"/>
+    <mergeCell ref="AO24:BE24"/>
+    <mergeCell ref="BF24:BV24"/>
+    <mergeCell ref="BW24:CM24"/>
+    <mergeCell ref="X23:AN23"/>
+    <mergeCell ref="AO23:BE23"/>
+    <mergeCell ref="BF23:BV23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:W23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6094,16 +6087,108 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:AO5"/>
-    <mergeCell ref="AP5:BD5"/>
-    <mergeCell ref="BE5:BS5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="U4:AO4"/>
-    <mergeCell ref="AP4:BD4"/>
-    <mergeCell ref="BE4:BS4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:T6"/>
+    <mergeCell ref="U6:AO6"/>
+    <mergeCell ref="AP6:BD6"/>
+    <mergeCell ref="BE6:BS6"/>
+    <mergeCell ref="CO19:DC19"/>
+    <mergeCell ref="CO20:DC20"/>
+    <mergeCell ref="CO21:DC21"/>
+    <mergeCell ref="CO22:DC22"/>
+    <mergeCell ref="BZ21:CN21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:T20"/>
+    <mergeCell ref="U20:AO20"/>
+    <mergeCell ref="AP20:BJ20"/>
+    <mergeCell ref="BK20:BY20"/>
+    <mergeCell ref="BZ20:CN20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:T21"/>
+    <mergeCell ref="U21:AO21"/>
+    <mergeCell ref="AP21:BJ21"/>
+    <mergeCell ref="BK21:BY21"/>
+    <mergeCell ref="BZ19:CN19"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:T10"/>
+    <mergeCell ref="CO23:DC23"/>
+    <mergeCell ref="CO31:DC31"/>
+    <mergeCell ref="CO25:DC25"/>
+    <mergeCell ref="CO26:DC26"/>
+    <mergeCell ref="CO27:DC27"/>
+    <mergeCell ref="CO28:DC28"/>
+    <mergeCell ref="CO29:DC29"/>
+    <mergeCell ref="CO30:DC30"/>
+    <mergeCell ref="CO24:DC24"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:T31"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="AP31:BJ31"/>
+    <mergeCell ref="BK31:BY31"/>
+    <mergeCell ref="BZ31:CN31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:T30"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="AP30:BJ30"/>
+    <mergeCell ref="BK30:BY30"/>
+    <mergeCell ref="BZ30:CN30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:T29"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="BK29:BY29"/>
+    <mergeCell ref="BZ29:CN29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:T28"/>
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="BK28:BY28"/>
+    <mergeCell ref="BZ28:CN28"/>
+    <mergeCell ref="BZ27:CN27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:T26"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="AP26:BJ26"/>
+    <mergeCell ref="BK26:BY26"/>
+    <mergeCell ref="BZ26:CN26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:T27"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="AP27:BJ27"/>
+    <mergeCell ref="BK27:BY27"/>
+    <mergeCell ref="BZ25:CN25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:T24"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="BK24:BY24"/>
+    <mergeCell ref="BZ24:CN24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:T25"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="AP25:BJ25"/>
+    <mergeCell ref="BK25:BY25"/>
+    <mergeCell ref="BZ23:CN23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:T22"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="AP22:BJ22"/>
+    <mergeCell ref="BK22:BY22"/>
+    <mergeCell ref="BZ22:CN22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:T23"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="AP23:BJ23"/>
+    <mergeCell ref="BK23:BY23"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:T19"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="AP19:BJ19"/>
+    <mergeCell ref="BK19:BY19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:T15"/>
+    <mergeCell ref="U15:AO15"/>
+    <mergeCell ref="AP15:BD15"/>
     <mergeCell ref="BE10:BS10"/>
     <mergeCell ref="BE11:BS11"/>
     <mergeCell ref="BE12:BS12"/>
@@ -6128,108 +6213,16 @@
     <mergeCell ref="F12:T12"/>
     <mergeCell ref="U12:AO12"/>
     <mergeCell ref="AP12:BD12"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:T19"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="AP19:BJ19"/>
-    <mergeCell ref="BK19:BY19"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:T15"/>
-    <mergeCell ref="U15:AO15"/>
-    <mergeCell ref="AP15:BD15"/>
-    <mergeCell ref="BZ23:CN23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:T22"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="AP22:BJ22"/>
-    <mergeCell ref="BK22:BY22"/>
-    <mergeCell ref="BZ22:CN22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:T23"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="AP23:BJ23"/>
-    <mergeCell ref="BK23:BY23"/>
-    <mergeCell ref="BZ25:CN25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:T24"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="AP24:BJ24"/>
-    <mergeCell ref="BK24:BY24"/>
-    <mergeCell ref="BZ24:CN24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:T25"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="BK25:BY25"/>
-    <mergeCell ref="BZ27:CN27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:T26"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="BK26:BY26"/>
-    <mergeCell ref="BZ26:CN26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:T27"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="BK27:BY27"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:T29"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="BK29:BY29"/>
-    <mergeCell ref="BZ29:CN29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:T28"/>
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="BK28:BY28"/>
-    <mergeCell ref="BZ28:CN28"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:T31"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="AP31:BJ31"/>
-    <mergeCell ref="BK31:BY31"/>
-    <mergeCell ref="BZ31:CN31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:T30"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="AP30:BJ30"/>
-    <mergeCell ref="BK30:BY30"/>
-    <mergeCell ref="BZ30:CN30"/>
-    <mergeCell ref="CO23:DC23"/>
-    <mergeCell ref="CO31:DC31"/>
-    <mergeCell ref="CO25:DC25"/>
-    <mergeCell ref="CO26:DC26"/>
-    <mergeCell ref="CO27:DC27"/>
-    <mergeCell ref="CO28:DC28"/>
-    <mergeCell ref="CO29:DC29"/>
-    <mergeCell ref="CO30:DC30"/>
-    <mergeCell ref="CO24:DC24"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:T6"/>
-    <mergeCell ref="U6:AO6"/>
-    <mergeCell ref="AP6:BD6"/>
-    <mergeCell ref="BE6:BS6"/>
-    <mergeCell ref="CO19:DC19"/>
-    <mergeCell ref="CO20:DC20"/>
-    <mergeCell ref="CO21:DC21"/>
-    <mergeCell ref="CO22:DC22"/>
-    <mergeCell ref="BZ21:CN21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:T20"/>
-    <mergeCell ref="U20:AO20"/>
-    <mergeCell ref="AP20:BJ20"/>
-    <mergeCell ref="BK20:BY20"/>
-    <mergeCell ref="BZ20:CN20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:T21"/>
-    <mergeCell ref="U21:AO21"/>
-    <mergeCell ref="AP21:BJ21"/>
-    <mergeCell ref="BK21:BY21"/>
-    <mergeCell ref="BZ19:CN19"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:T10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:AO5"/>
+    <mergeCell ref="AP5:BD5"/>
+    <mergeCell ref="BE5:BS5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="U4:AO4"/>
+    <mergeCell ref="AP4:BD4"/>
+    <mergeCell ref="BE4:BS4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6240,18 +6233,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCC1237-16DD-47FC-9C59-2E49C2F01E8E}">
   <dimension ref="B2:CP58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
@@ -6265,7 +6258,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -6304,7 +6297,7 @@
       <c r="AU4" s="10"/>
       <c r="AV4" s="10"/>
     </row>
-    <row r="5" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
@@ -6318,7 +6311,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -6357,7 +6350,7 @@
       <c r="AU5" s="10"/>
       <c r="AV5" s="10"/>
     </row>
-    <row r="6" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
@@ -6371,7 +6364,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -6410,12 +6403,12 @@
       <c r="AU6" s="10"/>
       <c r="AV6" s="10"/>
     </row>
-    <row r="8" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
@@ -6423,7 +6416,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -6462,31 +6455,8 @@
       <c r="AM10" s="10"/>
       <c r="AN10" s="10"/>
       <c r="AO10" s="10"/>
-      <c r="AP10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
-      <c r="BF10" s="10"/>
-      <c r="BG10" s="10"/>
-      <c r="BH10" s="10"/>
-      <c r="BI10" s="10"/>
-      <c r="BJ10" s="10"/>
-    </row>
-    <row r="11" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -6527,29 +6497,8 @@
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
       <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
-      <c r="BF11" s="10"/>
-      <c r="BG11" s="10"/>
-      <c r="BH11" s="10"/>
-      <c r="BI11" s="10"/>
-      <c r="BJ11" s="10"/>
-    </row>
-    <row r="12" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -6590,29 +6539,8 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="10"/>
       <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
-      <c r="BE12" s="10"/>
-      <c r="BF12" s="10"/>
-      <c r="BG12" s="10"/>
-      <c r="BH12" s="10"/>
-      <c r="BI12" s="10"/>
-      <c r="BJ12" s="10"/>
-    </row>
-    <row r="13" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -6653,29 +6581,8 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="10"/>
       <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="10"/>
-      <c r="AZ13" s="10"/>
-      <c r="BA13" s="10"/>
-      <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
-      <c r="BE13" s="10"/>
-      <c r="BF13" s="10"/>
-      <c r="BG13" s="10"/>
-      <c r="BH13" s="10"/>
-      <c r="BI13" s="10"/>
-      <c r="BJ13" s="10"/>
-    </row>
-    <row r="14" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -6716,29 +6623,8 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="10"/>
       <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="10"/>
-      <c r="BF14" s="10"/>
-      <c r="BG14" s="10"/>
-      <c r="BH14" s="10"/>
-      <c r="BI14" s="10"/>
-      <c r="BJ14" s="10"/>
-    </row>
-    <row r="15" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -6779,29 +6665,8 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="10"/>
       <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
-      <c r="AY15" s="10"/>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="10"/>
-      <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
-      <c r="BE15" s="10"/>
-      <c r="BF15" s="10"/>
-      <c r="BG15" s="10"/>
-      <c r="BH15" s="10"/>
-      <c r="BI15" s="10"/>
-      <c r="BJ15" s="10"/>
-    </row>
-    <row r="16" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -6842,31 +6707,10 @@
       <c r="AM16" s="10"/>
       <c r="AN16" s="10"/>
       <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
-      <c r="BF16" s="10"/>
-      <c r="BG16" s="10"/>
-      <c r="BH16" s="10"/>
-      <c r="BI16" s="10"/>
-      <c r="BJ16" s="10"/>
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:62" x14ac:dyDescent="0.55000000000000004">
@@ -6910,29 +6754,6 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
       <c r="AK20" s="10"/>
-      <c r="AL20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
-      <c r="AY20" s="10"/>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="10"/>
-      <c r="BB20" s="10"/>
-      <c r="BC20" s="10"/>
-      <c r="BD20" s="10"/>
-      <c r="BE20" s="10"/>
-      <c r="BF20" s="10"/>
     </row>
     <row r="21" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="10"/>
@@ -6971,31 +6792,10 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
       <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10"/>
-      <c r="AV21" s="10"/>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
-      <c r="AY21" s="10"/>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="10"/>
-      <c r="BB21" s="10"/>
-      <c r="BC21" s="10"/>
-      <c r="BD21" s="10"/>
-      <c r="BE21" s="10"/>
-      <c r="BF21" s="10"/>
     </row>
     <row r="23" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:62" x14ac:dyDescent="0.55000000000000004">
@@ -7006,7 +6806,7 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -7046,7 +6846,7 @@
       <c r="AN25" s="10"/>
       <c r="AO25" s="10"/>
       <c r="AP25" s="10" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
@@ -7077,7 +6877,7 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -7093,7 +6893,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
@@ -7116,9 +6916,7 @@
       <c r="AM26" s="10"/>
       <c r="AN26" s="10"/>
       <c r="AO26" s="10"/>
-      <c r="AP26" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="AP26" s="10"/>
       <c r="AQ26" s="10"/>
       <c r="AR26" s="10"/>
       <c r="AS26" s="10"/>
@@ -7331,12 +7129,12 @@
     </row>
     <row r="32" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -7346,7 +7144,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
@@ -7435,7 +7233,7 @@
     </row>
     <row r="35" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -7446,7 +7244,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="2"/>
       <c r="K35" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -7540,12 +7338,12 @@
     </row>
     <row r="37" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="1"/>
       <c r="K37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="CP37" s="5"/>
     </row>
@@ -7566,7 +7364,7 @@
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
@@ -7582,7 +7380,7 @@
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
       <c r="AC39" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AD39" s="10"/>
       <c r="AE39" s="10"/>
@@ -7618,7 +7416,7 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
@@ -7634,7 +7432,7 @@
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
       <c r="AC40" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
@@ -7673,12 +7471,12 @@
     </row>
     <row r="43" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="1"/>
       <c r="K43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CP43" s="5"/>
     </row>
@@ -7693,7 +7491,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="1"/>
       <c r="K45" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
@@ -7741,7 +7539,7 @@
       <c r="I46" s="5"/>
       <c r="J46" s="1"/>
       <c r="K46" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -7795,7 +7593,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
       <c r="K48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CP48" s="5"/>
     </row>
@@ -7810,7 +7608,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
@@ -7826,7 +7624,7 @@
       <c r="AA49" s="10"/>
       <c r="AB49" s="10"/>
       <c r="AC49" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD49" s="10"/>
       <c r="AE49" s="10"/>
@@ -7842,7 +7640,7 @@
       <c r="AO49" s="10"/>
       <c r="AP49" s="10"/>
       <c r="AQ49" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AR49" s="10"/>
       <c r="AS49" s="10"/>
@@ -7870,7 +7668,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
@@ -7886,7 +7684,7 @@
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
       <c r="AC50" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD50" s="10"/>
       <c r="AE50" s="10"/>
@@ -7902,7 +7700,7 @@
       <c r="AO50" s="10"/>
       <c r="AP50" s="10"/>
       <c r="AQ50" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AR50" s="10"/>
       <c r="AS50" s="10"/>
@@ -7930,7 +7728,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="1"/>
       <c r="K52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="CP52" s="5"/>
     </row>
@@ -7945,7 +7743,7 @@
       <c r="I54" s="5"/>
       <c r="J54" s="1"/>
       <c r="K54" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
@@ -7993,7 +7791,7 @@
       <c r="I55" s="5"/>
       <c r="J55" s="1"/>
       <c r="K55" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
@@ -8050,7 +7848,7 @@
     </row>
     <row r="58" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -8061,7 +7859,7 @@
       <c r="I58" s="8"/>
       <c r="J58" s="6"/>
       <c r="K58" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -8148,51 +7946,27 @@
       <c r="CP58" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="K54:AX54"/>
-    <mergeCell ref="K55:AX55"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:S10"/>
-    <mergeCell ref="T10:AO10"/>
-    <mergeCell ref="AP10:BJ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:S11"/>
-    <mergeCell ref="T11:AO11"/>
-    <mergeCell ref="AP11:BJ11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:AO12"/>
-    <mergeCell ref="AP12:BJ12"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:AB39"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L4:AV4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:AV5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="L6:AV6"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:S13"/>
-    <mergeCell ref="T13:AO13"/>
-    <mergeCell ref="AP13:BJ13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:S14"/>
-    <mergeCell ref="T14:AO14"/>
-    <mergeCell ref="AP14:BJ14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:S15"/>
-    <mergeCell ref="T15:AO15"/>
-    <mergeCell ref="AP15:BJ15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="T16:AO16"/>
-    <mergeCell ref="AP16:BJ16"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="P20:AK20"/>
-    <mergeCell ref="AL20:BF20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="P21:AK21"/>
-    <mergeCell ref="AL21:BF21"/>
+  <mergeCells count="71">
+    <mergeCell ref="J34:CP34"/>
+    <mergeCell ref="AQ49:BD49"/>
+    <mergeCell ref="AQ50:BD50"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O49:AB49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:AB50"/>
+    <mergeCell ref="K45:AX45"/>
+    <mergeCell ref="K46:AX46"/>
+    <mergeCell ref="AC49:AP49"/>
+    <mergeCell ref="AC50:AP50"/>
+    <mergeCell ref="AC39:AX39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="O40:AB40"/>
+    <mergeCell ref="AC40:AX40"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="T29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F25:S25"/>
@@ -8209,26 +7983,41 @@
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="F28:S28"/>
     <mergeCell ref="T28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="T29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="J34:CP34"/>
-    <mergeCell ref="AQ49:BD49"/>
-    <mergeCell ref="AQ50:BD50"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:AB49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:AB50"/>
-    <mergeCell ref="K45:AX45"/>
-    <mergeCell ref="K46:AX46"/>
-    <mergeCell ref="AC49:AP49"/>
-    <mergeCell ref="AC50:AP50"/>
-    <mergeCell ref="AC39:AX39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="O40:AB40"/>
-    <mergeCell ref="AC40:AX40"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="P20:AK20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="P21:AK21"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:S15"/>
+    <mergeCell ref="T15:AO15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="T16:AO16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:S13"/>
+    <mergeCell ref="T13:AO13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:S14"/>
+    <mergeCell ref="T14:AO14"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:AV4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:AV5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:AV6"/>
+    <mergeCell ref="K54:AX54"/>
+    <mergeCell ref="K55:AX55"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:S10"/>
+    <mergeCell ref="T10:AO10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:S11"/>
+    <mergeCell ref="T11:AO11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:AO12"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O39:AB39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/docs/pg0002/アプリケーション詳細設計書.xlsx
+++ b/document/docs/pg0002/アプリケーション詳細設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\document\docs\pg0002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27030A14-CF01-4B4B-8F4F-9BCC790C450C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A024D2A5-DA40-4B6A-A4CB-6EED2CF061A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{B7C0FE37-24B5-4B6B-86B1-54C95A5D177E}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>プログラムコード</t>
     <phoneticPr fontId="1"/>
@@ -276,30 +276,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>３．戻り値</t>
-    <rPh sb="2" eb="3">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.処理</t>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.ローカル変数</t>
-    <rPh sb="6" eb="8">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>制御マーク</t>
     <rPh sb="0" eb="2">
       <t>セイギョ</t>
@@ -589,6 +565,20 @@
     <t>種類</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.ローカル変数</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.処理</t>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1146,7 +1136,7 @@
   <sheetData>
     <row r="3" spans="3:97" ht="32.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1469,7 +1459,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2523,23 +2513,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:CQ4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:CQ5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:CQ6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:CQ7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:CQ8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:CQ9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:CQ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:CQ11"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:CQ15"/>
     <mergeCell ref="B12:E12"/>
@@ -2548,6 +2521,23 @@
     <mergeCell ref="F13:CQ13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:CQ14"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:CQ9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:CQ10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:CQ11"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:CQ6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:CQ7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:CQ8"/>
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:CQ4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:CQ5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2680,7 +2670,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -2783,7 +2773,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -2814,7 +2804,7 @@
       <c r="AQ5" s="12"/>
       <c r="AR5" s="13"/>
       <c r="AS5" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AT5" s="10"/>
       <c r="AU5" s="10"/>
@@ -3088,7 +3078,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
@@ -3174,7 +3164,7 @@
     </row>
     <row r="9" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -3189,7 +3179,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -3933,19 +3923,34 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="G14:W14"/>
-    <mergeCell ref="X14:AN14"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="X12:AN12"/>
-    <mergeCell ref="G13:W13"/>
-    <mergeCell ref="X13:AN13"/>
-    <mergeCell ref="AO12:BE12"/>
-    <mergeCell ref="C9:O9"/>
-    <mergeCell ref="P9:AR9"/>
-    <mergeCell ref="AS5:CS9"/>
+    <mergeCell ref="BW23:CM23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:W24"/>
+    <mergeCell ref="X24:AN24"/>
+    <mergeCell ref="AO24:BE24"/>
+    <mergeCell ref="BF24:BV24"/>
+    <mergeCell ref="BW24:CM24"/>
+    <mergeCell ref="X23:AN23"/>
+    <mergeCell ref="AO23:BE23"/>
+    <mergeCell ref="BF23:BV23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:W23"/>
+    <mergeCell ref="AO18:BE18"/>
+    <mergeCell ref="G12:W12"/>
+    <mergeCell ref="BW22:CM22"/>
+    <mergeCell ref="X22:AN22"/>
+    <mergeCell ref="AO22:BE22"/>
+    <mergeCell ref="BF22:BV22"/>
+    <mergeCell ref="AO19:BE19"/>
+    <mergeCell ref="AO15:BE15"/>
+    <mergeCell ref="G15:W15"/>
+    <mergeCell ref="X15:AN15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:W18"/>
+    <mergeCell ref="X18:AN18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:W19"/>
+    <mergeCell ref="X19:AN19"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="G22:W22"/>
     <mergeCell ref="C15:F15"/>
@@ -3962,34 +3967,19 @@
     <mergeCell ref="C7:O7"/>
     <mergeCell ref="P7:AR7"/>
     <mergeCell ref="C8:O8"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:W18"/>
-    <mergeCell ref="X18:AN18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:W19"/>
-    <mergeCell ref="X19:AN19"/>
-    <mergeCell ref="AO18:BE18"/>
-    <mergeCell ref="G12:W12"/>
-    <mergeCell ref="BW22:CM22"/>
-    <mergeCell ref="X22:AN22"/>
-    <mergeCell ref="AO22:BE22"/>
-    <mergeCell ref="BF22:BV22"/>
-    <mergeCell ref="AO19:BE19"/>
-    <mergeCell ref="AO15:BE15"/>
-    <mergeCell ref="G15:W15"/>
-    <mergeCell ref="X15:AN15"/>
-    <mergeCell ref="BW23:CM23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:W24"/>
-    <mergeCell ref="X24:AN24"/>
-    <mergeCell ref="AO24:BE24"/>
-    <mergeCell ref="BF24:BV24"/>
-    <mergeCell ref="BW24:CM24"/>
-    <mergeCell ref="X23:AN23"/>
-    <mergeCell ref="AO23:BE23"/>
-    <mergeCell ref="BF23:BV23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:W23"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="G14:W14"/>
+    <mergeCell ref="X14:AN14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="X12:AN12"/>
+    <mergeCell ref="G13:W13"/>
+    <mergeCell ref="X13:AN13"/>
+    <mergeCell ref="AO12:BE12"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="P9:AR9"/>
+    <mergeCell ref="AS5:CS9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6087,6 +6077,118 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:AO5"/>
+    <mergeCell ref="AP5:BD5"/>
+    <mergeCell ref="BE5:BS5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="U4:AO4"/>
+    <mergeCell ref="AP4:BD4"/>
+    <mergeCell ref="BE4:BS4"/>
+    <mergeCell ref="BE10:BS10"/>
+    <mergeCell ref="BE11:BS11"/>
+    <mergeCell ref="BE12:BS12"/>
+    <mergeCell ref="BE13:BS13"/>
+    <mergeCell ref="BE14:BS14"/>
+    <mergeCell ref="BE15:BS15"/>
+    <mergeCell ref="AP13:BD13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:T14"/>
+    <mergeCell ref="U14:AO14"/>
+    <mergeCell ref="AP14:BD14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:T13"/>
+    <mergeCell ref="U13:AO13"/>
+    <mergeCell ref="U10:AO10"/>
+    <mergeCell ref="AP10:BD10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:T11"/>
+    <mergeCell ref="U11:AO11"/>
+    <mergeCell ref="AP11:BD11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:T12"/>
+    <mergeCell ref="U12:AO12"/>
+    <mergeCell ref="AP12:BD12"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:T19"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="AP19:BJ19"/>
+    <mergeCell ref="BK19:BY19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:T15"/>
+    <mergeCell ref="U15:AO15"/>
+    <mergeCell ref="AP15:BD15"/>
+    <mergeCell ref="BZ23:CN23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:T22"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="AP22:BJ22"/>
+    <mergeCell ref="BK22:BY22"/>
+    <mergeCell ref="BZ22:CN22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:T23"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="AP23:BJ23"/>
+    <mergeCell ref="BK23:BY23"/>
+    <mergeCell ref="BZ25:CN25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:T24"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="BK24:BY24"/>
+    <mergeCell ref="BZ24:CN24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:T25"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="AP25:BJ25"/>
+    <mergeCell ref="BK25:BY25"/>
+    <mergeCell ref="BZ27:CN27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:T26"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="AP26:BJ26"/>
+    <mergeCell ref="BK26:BY26"/>
+    <mergeCell ref="BZ26:CN26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:T27"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="AP27:BJ27"/>
+    <mergeCell ref="BK27:BY27"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:T29"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="BK29:BY29"/>
+    <mergeCell ref="BZ29:CN29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:T28"/>
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="BK28:BY28"/>
+    <mergeCell ref="BZ28:CN28"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:T31"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="AP31:BJ31"/>
+    <mergeCell ref="BK31:BY31"/>
+    <mergeCell ref="BZ31:CN31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:T30"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="AP30:BJ30"/>
+    <mergeCell ref="BK30:BY30"/>
+    <mergeCell ref="BZ30:CN30"/>
+    <mergeCell ref="CO23:DC23"/>
+    <mergeCell ref="CO31:DC31"/>
+    <mergeCell ref="CO25:DC25"/>
+    <mergeCell ref="CO26:DC26"/>
+    <mergeCell ref="CO27:DC27"/>
+    <mergeCell ref="CO28:DC28"/>
+    <mergeCell ref="CO29:DC29"/>
+    <mergeCell ref="CO30:DC30"/>
+    <mergeCell ref="CO24:DC24"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:T6"/>
     <mergeCell ref="U6:AO6"/>
@@ -6111,118 +6213,6 @@
     <mergeCell ref="BZ19:CN19"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:T10"/>
-    <mergeCell ref="CO23:DC23"/>
-    <mergeCell ref="CO31:DC31"/>
-    <mergeCell ref="CO25:DC25"/>
-    <mergeCell ref="CO26:DC26"/>
-    <mergeCell ref="CO27:DC27"/>
-    <mergeCell ref="CO28:DC28"/>
-    <mergeCell ref="CO29:DC29"/>
-    <mergeCell ref="CO30:DC30"/>
-    <mergeCell ref="CO24:DC24"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:T31"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="AP31:BJ31"/>
-    <mergeCell ref="BK31:BY31"/>
-    <mergeCell ref="BZ31:CN31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:T30"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="AP30:BJ30"/>
-    <mergeCell ref="BK30:BY30"/>
-    <mergeCell ref="BZ30:CN30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:T29"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="BK29:BY29"/>
-    <mergeCell ref="BZ29:CN29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:T28"/>
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="BK28:BY28"/>
-    <mergeCell ref="BZ28:CN28"/>
-    <mergeCell ref="BZ27:CN27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:T26"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="BK26:BY26"/>
-    <mergeCell ref="BZ26:CN26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:T27"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="BK27:BY27"/>
-    <mergeCell ref="BZ25:CN25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:T24"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="AP24:BJ24"/>
-    <mergeCell ref="BK24:BY24"/>
-    <mergeCell ref="BZ24:CN24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:T25"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="BK25:BY25"/>
-    <mergeCell ref="BZ23:CN23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:T22"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="AP22:BJ22"/>
-    <mergeCell ref="BK22:BY22"/>
-    <mergeCell ref="BZ22:CN22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:T23"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="AP23:BJ23"/>
-    <mergeCell ref="BK23:BY23"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:T19"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="AP19:BJ19"/>
-    <mergeCell ref="BK19:BY19"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:T15"/>
-    <mergeCell ref="U15:AO15"/>
-    <mergeCell ref="AP15:BD15"/>
-    <mergeCell ref="BE10:BS10"/>
-    <mergeCell ref="BE11:BS11"/>
-    <mergeCell ref="BE12:BS12"/>
-    <mergeCell ref="BE13:BS13"/>
-    <mergeCell ref="BE14:BS14"/>
-    <mergeCell ref="BE15:BS15"/>
-    <mergeCell ref="AP13:BD13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:T14"/>
-    <mergeCell ref="U14:AO14"/>
-    <mergeCell ref="AP14:BD14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:T13"/>
-    <mergeCell ref="U13:AO13"/>
-    <mergeCell ref="U10:AO10"/>
-    <mergeCell ref="AP10:BD10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:T11"/>
-    <mergeCell ref="U11:AO11"/>
-    <mergeCell ref="AP11:BD11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:T12"/>
-    <mergeCell ref="U12:AO12"/>
-    <mergeCell ref="AP12:BD12"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:AO5"/>
-    <mergeCell ref="AP5:BD5"/>
-    <mergeCell ref="BE5:BS5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="U4:AO4"/>
-    <mergeCell ref="AP4:BD4"/>
-    <mergeCell ref="BE4:BS4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6231,10 +6221,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCC1237-16DD-47FC-9C59-2E49C2F01E8E}">
-  <dimension ref="B2:CP58"/>
+  <dimension ref="B2:CP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6258,7 +6248,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -6311,7 +6301,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -6364,7 +6354,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -6405,7 +6395,7 @@
     </row>
     <row r="8" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.55000000000000004">
@@ -6708,59 +6698,21 @@
       <c r="AN16" s="10"/>
       <c r="AO16" s="10"/>
     </row>
-    <row r="18" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-    </row>
-    <row r="21" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="10"/>
+    <row r="19" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -6774,7 +6726,9 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
+      <c r="T21" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
@@ -6792,22 +6746,235 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
       <c r="AK21" s="10"/>
-    </row>
-    <row r="23" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="10"/>
+      <c r="BD21" s="10"/>
+      <c r="BE21" s="10"/>
+      <c r="BF21" s="10"/>
+      <c r="BG21" s="10"/>
+      <c r="BH21" s="10"/>
+      <c r="BI21" s="10"/>
+      <c r="BJ21" s="10"/>
+    </row>
+    <row r="22" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="10"/>
+      <c r="BG22" s="10"/>
+      <c r="BH22" s="10"/>
+      <c r="BI22" s="10"/>
+      <c r="BJ22" s="10"/>
+    </row>
+    <row r="23" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="10"/>
+      <c r="BF23" s="10"/>
+      <c r="BG23" s="10"/>
+      <c r="BH23" s="10"/>
+      <c r="BI23" s="10"/>
+      <c r="BJ23" s="10"/>
+    </row>
+    <row r="24" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="10"/>
+      <c r="BF24" s="10"/>
+      <c r="BG24" s="10"/>
+      <c r="BH24" s="10"/>
+      <c r="BI24" s="10"/>
+      <c r="BJ24" s="10"/>
+    </row>
+    <row r="25" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -6821,9 +6988,7 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
-      <c r="T25" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
@@ -6845,9 +7010,7 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="10"/>
       <c r="AO25" s="10"/>
-      <c r="AP25" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="AP25" s="10"/>
       <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
       <c r="AS25" s="10"/>
@@ -6869,482 +7032,340 @@
       <c r="BI25" s="10"/>
       <c r="BJ25" s="10"/>
     </row>
-    <row r="26" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="10"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
-      <c r="AZ26" s="10"/>
-      <c r="BA26" s="10"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="10"/>
-      <c r="BE26" s="10"/>
-      <c r="BF26" s="10"/>
-      <c r="BG26" s="10"/>
-      <c r="BH26" s="10"/>
-      <c r="BI26" s="10"/>
-      <c r="BJ26" s="10"/>
-    </row>
-    <row r="27" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
-      <c r="AP27" s="10"/>
-      <c r="AQ27" s="10"/>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
-      <c r="AU27" s="10"/>
-      <c r="AV27" s="10"/>
-      <c r="AW27" s="10"/>
-      <c r="AX27" s="10"/>
-      <c r="AY27" s="10"/>
-      <c r="AZ27" s="10"/>
-      <c r="BA27" s="10"/>
-      <c r="BB27" s="10"/>
-      <c r="BC27" s="10"/>
-      <c r="BD27" s="10"/>
-      <c r="BE27" s="10"/>
-      <c r="BF27" s="10"/>
-      <c r="BG27" s="10"/>
-      <c r="BH27" s="10"/>
-      <c r="BI27" s="10"/>
-      <c r="BJ27" s="10"/>
-    </row>
-    <row r="28" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="10"/>
-      <c r="AT28" s="10"/>
-      <c r="AU28" s="10"/>
-      <c r="AV28" s="10"/>
-      <c r="AW28" s="10"/>
-      <c r="AX28" s="10"/>
-      <c r="AY28" s="10"/>
-      <c r="AZ28" s="10"/>
-      <c r="BA28" s="10"/>
-      <c r="BB28" s="10"/>
-      <c r="BC28" s="10"/>
-      <c r="BD28" s="10"/>
-      <c r="BE28" s="10"/>
-      <c r="BF28" s="10"/>
-      <c r="BG28" s="10"/>
-      <c r="BH28" s="10"/>
-      <c r="BI28" s="10"/>
-      <c r="BJ28" s="10"/>
-    </row>
-    <row r="29" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
-      <c r="AP29" s="10"/>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
-      <c r="AU29" s="10"/>
-      <c r="AV29" s="10"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="10"/>
-      <c r="AZ29" s="10"/>
-      <c r="BA29" s="10"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="10"/>
-      <c r="BF29" s="10"/>
-      <c r="BG29" s="10"/>
-      <c r="BH29" s="10"/>
-      <c r="BI29" s="10"/>
-      <c r="BJ29" s="10"/>
-    </row>
-    <row r="32" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" t="s">
+    <row r="28" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="14"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="14"/>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="14"/>
+      <c r="AU30" s="14"/>
+      <c r="AV30" s="14"/>
+      <c r="AW30" s="14"/>
+      <c r="AX30" s="14"/>
+      <c r="AY30" s="14"/>
+      <c r="AZ30" s="14"/>
+      <c r="BA30" s="14"/>
+      <c r="BB30" s="14"/>
+      <c r="BC30" s="14"/>
+      <c r="BD30" s="14"/>
+      <c r="BE30" s="14"/>
+      <c r="BF30" s="14"/>
+      <c r="BG30" s="14"/>
+      <c r="BH30" s="14"/>
+      <c r="BI30" s="14"/>
+      <c r="BJ30" s="14"/>
+      <c r="BK30" s="14"/>
+      <c r="BL30" s="14"/>
+      <c r="BM30" s="14"/>
+      <c r="BN30" s="14"/>
+      <c r="BO30" s="14"/>
+      <c r="BP30" s="14"/>
+      <c r="BQ30" s="14"/>
+      <c r="BR30" s="14"/>
+      <c r="BS30" s="14"/>
+      <c r="BT30" s="14"/>
+      <c r="BU30" s="14"/>
+      <c r="BV30" s="14"/>
+      <c r="BW30" s="14"/>
+      <c r="BX30" s="14"/>
+      <c r="BY30" s="14"/>
+      <c r="BZ30" s="14"/>
+      <c r="CA30" s="14"/>
+      <c r="CB30" s="14"/>
+      <c r="CC30" s="14"/>
+      <c r="CD30" s="14"/>
+      <c r="CE30" s="14"/>
+      <c r="CF30" s="14"/>
+      <c r="CG30" s="14"/>
+      <c r="CH30" s="14"/>
+      <c r="CI30" s="14"/>
+      <c r="CJ30" s="14"/>
+      <c r="CK30" s="14"/>
+      <c r="CL30" s="14"/>
+      <c r="CM30" s="14"/>
+      <c r="CN30" s="14"/>
+      <c r="CO30" s="14"/>
+      <c r="CP30" s="14"/>
+    </row>
+    <row r="31" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+      <c r="BJ31" s="3"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3"/>
+      <c r="BO31" s="3"/>
+      <c r="BP31" s="3"/>
+      <c r="BQ31" s="3"/>
+      <c r="BR31" s="3"/>
+      <c r="BS31" s="3"/>
+      <c r="BT31" s="3"/>
+      <c r="BU31" s="3"/>
+      <c r="BV31" s="3"/>
+      <c r="BW31" s="3"/>
+      <c r="BX31" s="3"/>
+      <c r="BY31" s="3"/>
+      <c r="BZ31" s="3"/>
+      <c r="CA31" s="3"/>
+      <c r="CB31" s="3"/>
+      <c r="CC31" s="3"/>
+      <c r="CD31" s="3"/>
+      <c r="CE31" s="3"/>
+      <c r="CF31" s="3"/>
+      <c r="CG31" s="3"/>
+      <c r="CH31" s="3"/>
+      <c r="CI31" s="3"/>
+      <c r="CJ31" s="3"/>
+      <c r="CK31" s="3"/>
+      <c r="CL31" s="3"/>
+      <c r="CM31" s="3"/>
+      <c r="CN31" s="3"/>
+      <c r="CO31" s="3"/>
+      <c r="CP31" s="4"/>
+    </row>
+    <row r="32" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="1"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="1"/>
+      <c r="CP32" s="5"/>
+    </row>
+    <row r="33" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="1"/>
+      <c r="K33" t="s">
+        <v>64</v>
+      </c>
+      <c r="CP33" s="5"/>
     </row>
     <row r="34" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="14"/>
-      <c r="AN34" s="14"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="14"/>
-      <c r="AT34" s="14"/>
-      <c r="AU34" s="14"/>
-      <c r="AV34" s="14"/>
-      <c r="AW34" s="14"/>
-      <c r="AX34" s="14"/>
-      <c r="AY34" s="14"/>
-      <c r="AZ34" s="14"/>
-      <c r="BA34" s="14"/>
-      <c r="BB34" s="14"/>
-      <c r="BC34" s="14"/>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="14"/>
-      <c r="BG34" s="14"/>
-      <c r="BH34" s="14"/>
-      <c r="BI34" s="14"/>
-      <c r="BJ34" s="14"/>
-      <c r="BK34" s="14"/>
-      <c r="BL34" s="14"/>
-      <c r="BM34" s="14"/>
-      <c r="BN34" s="14"/>
-      <c r="BO34" s="14"/>
-      <c r="BP34" s="14"/>
-      <c r="BQ34" s="14"/>
-      <c r="BR34" s="14"/>
-      <c r="BS34" s="14"/>
-      <c r="BT34" s="14"/>
-      <c r="BU34" s="14"/>
-      <c r="BV34" s="14"/>
-      <c r="BW34" s="14"/>
-      <c r="BX34" s="14"/>
-      <c r="BY34" s="14"/>
-      <c r="BZ34" s="14"/>
-      <c r="CA34" s="14"/>
-      <c r="CB34" s="14"/>
-      <c r="CC34" s="14"/>
-      <c r="CD34" s="14"/>
-      <c r="CE34" s="14"/>
-      <c r="CF34" s="14"/>
-      <c r="CG34" s="14"/>
-      <c r="CH34" s="14"/>
-      <c r="CI34" s="14"/>
-      <c r="CJ34" s="14"/>
-      <c r="CK34" s="14"/>
-      <c r="CL34" s="14"/>
-      <c r="CM34" s="14"/>
-      <c r="CN34" s="14"/>
-      <c r="CO34" s="14"/>
-      <c r="CP34" s="14"/>
+      <c r="B34" s="1"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="1"/>
+      <c r="CP34" s="5"/>
     </row>
     <row r="35" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="3"/>
-      <c r="BC35" s="3"/>
-      <c r="BD35" s="3"/>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="3"/>
-      <c r="BG35" s="3"/>
-      <c r="BH35" s="3"/>
-      <c r="BI35" s="3"/>
-      <c r="BJ35" s="3"/>
-      <c r="BK35" s="3"/>
-      <c r="BL35" s="3"/>
-      <c r="BM35" s="3"/>
-      <c r="BN35" s="3"/>
-      <c r="BO35" s="3"/>
-      <c r="BP35" s="3"/>
-      <c r="BQ35" s="3"/>
-      <c r="BR35" s="3"/>
-      <c r="BS35" s="3"/>
-      <c r="BT35" s="3"/>
-      <c r="BU35" s="3"/>
-      <c r="BV35" s="3"/>
-      <c r="BW35" s="3"/>
-      <c r="BX35" s="3"/>
-      <c r="BY35" s="3"/>
-      <c r="BZ35" s="3"/>
-      <c r="CA35" s="3"/>
-      <c r="CB35" s="3"/>
-      <c r="CC35" s="3"/>
-      <c r="CD35" s="3"/>
-      <c r="CE35" s="3"/>
-      <c r="CF35" s="3"/>
-      <c r="CG35" s="3"/>
-      <c r="CH35" s="3"/>
-      <c r="CI35" s="3"/>
-      <c r="CJ35" s="3"/>
-      <c r="CK35" s="3"/>
-      <c r="CL35" s="3"/>
-      <c r="CM35" s="3"/>
-      <c r="CN35" s="3"/>
-      <c r="CO35" s="3"/>
-      <c r="CP35" s="4"/>
+      <c r="B35" s="1"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="10"/>
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
+      <c r="CP35" s="5"/>
     </row>
     <row r="36" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1"/>
       <c r="I36" s="5"/>
       <c r="J36" s="1"/>
+      <c r="K36" s="10">
+        <v>1</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10"/>
+      <c r="AQ36" s="10"/>
+      <c r="AR36" s="10"/>
+      <c r="AS36" s="10"/>
+      <c r="AT36" s="10"/>
+      <c r="AU36" s="10"/>
+      <c r="AV36" s="10"/>
+      <c r="AW36" s="10"/>
+      <c r="AX36" s="10"/>
       <c r="CP36" s="5"/>
     </row>
     <row r="37" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="I37" s="5"/>
       <c r="J37" s="1"/>
-      <c r="K37" t="s">
-        <v>67</v>
-      </c>
       <c r="CP37" s="5"/>
     </row>
     <row r="38" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7354,136 +7375,131 @@
       <c r="CP38" s="5"/>
     </row>
     <row r="39" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10" t="s">
+      <c r="K39" t="s">
         <v>43</v>
       </c>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="10"/>
-      <c r="AK39" s="10"/>
-      <c r="AL39" s="10"/>
-      <c r="AM39" s="10"/>
-      <c r="AN39" s="10"/>
-      <c r="AO39" s="10"/>
-      <c r="AP39" s="10"/>
-      <c r="AQ39" s="10"/>
-      <c r="AR39" s="10"/>
-      <c r="AS39" s="10"/>
-      <c r="AT39" s="10"/>
-      <c r="AU39" s="10"/>
-      <c r="AV39" s="10"/>
-      <c r="AW39" s="10"/>
-      <c r="AX39" s="10"/>
       <c r="CP39" s="5"/>
     </row>
     <row r="40" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1"/>
       <c r="I40" s="5"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="10">
-        <v>1</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="10"/>
-      <c r="AN40" s="10"/>
-      <c r="AO40" s="10"/>
-      <c r="AP40" s="10"/>
-      <c r="AQ40" s="10"/>
-      <c r="AR40" s="10"/>
-      <c r="AS40" s="10"/>
-      <c r="AT40" s="10"/>
-      <c r="AU40" s="10"/>
-      <c r="AV40" s="10"/>
-      <c r="AW40" s="10"/>
-      <c r="AX40" s="10"/>
       <c r="CP40" s="5"/>
     </row>
     <row r="41" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1"/>
       <c r="I41" s="5"/>
       <c r="J41" s="1"/>
+      <c r="K41" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="10"/>
+      <c r="AO41" s="10"/>
+      <c r="AP41" s="10"/>
+      <c r="AQ41" s="10"/>
+      <c r="AR41" s="10"/>
+      <c r="AS41" s="10"/>
+      <c r="AT41" s="10"/>
+      <c r="AU41" s="10"/>
+      <c r="AV41" s="10"/>
+      <c r="AW41" s="10"/>
+      <c r="AX41" s="10"/>
       <c r="CP41" s="5"/>
     </row>
     <row r="42" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1"/>
       <c r="I42" s="5"/>
       <c r="J42" s="1"/>
+      <c r="K42" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10"/>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="10"/>
+      <c r="AT42" s="10"/>
+      <c r="AU42" s="10"/>
+      <c r="AV42" s="10"/>
+      <c r="AW42" s="10"/>
+      <c r="AX42" s="10"/>
       <c r="CP42" s="5"/>
     </row>
     <row r="43" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="I43" s="5"/>
       <c r="J43" s="1"/>
-      <c r="K43" t="s">
-        <v>46</v>
-      </c>
       <c r="CP43" s="5"/>
     </row>
     <row r="44" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1"/>
       <c r="I44" s="5"/>
       <c r="J44" s="1"/>
+      <c r="K44" t="s">
+        <v>45</v>
+      </c>
       <c r="CP44" s="5"/>
     </row>
     <row r="45" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7491,12 +7507,14 @@
       <c r="I45" s="5"/>
       <c r="J45" s="1"/>
       <c r="K45" s="10" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
+      <c r="O45" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
@@ -7510,7 +7528,9 @@
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
+      <c r="AC45" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
       <c r="AF45" s="10"/>
@@ -7524,7 +7544,9 @@
       <c r="AN45" s="10"/>
       <c r="AO45" s="10"/>
       <c r="AP45" s="10"/>
-      <c r="AQ45" s="10"/>
+      <c r="AQ45" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="AR45" s="10"/>
       <c r="AS45" s="10"/>
       <c r="AT45" s="10"/>
@@ -7532,19 +7554,27 @@
       <c r="AV45" s="10"/>
       <c r="AW45" s="10"/>
       <c r="AX45" s="10"/>
+      <c r="AY45" s="10"/>
+      <c r="AZ45" s="10"/>
+      <c r="BA45" s="10"/>
+      <c r="BB45" s="10"/>
+      <c r="BC45" s="10"/>
+      <c r="BD45" s="10"/>
       <c r="CP45" s="5"/>
     </row>
     <row r="46" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1"/>
       <c r="I46" s="5"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="10" t="s">
-        <v>65</v>
+      <c r="K46" s="10">
+        <v>1</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
+      <c r="O46" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
@@ -7558,7 +7588,9 @@
       <c r="Z46" s="10"/>
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
+      <c r="AC46" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="AD46" s="10"/>
       <c r="AE46" s="10"/>
       <c r="AF46" s="10"/>
@@ -7572,7 +7604,9 @@
       <c r="AN46" s="10"/>
       <c r="AO46" s="10"/>
       <c r="AP46" s="10"/>
-      <c r="AQ46" s="10"/>
+      <c r="AQ46" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="AR46" s="10"/>
       <c r="AS46" s="10"/>
       <c r="AT46" s="10"/>
@@ -7580,6 +7614,12 @@
       <c r="AV46" s="10"/>
       <c r="AW46" s="10"/>
       <c r="AX46" s="10"/>
+      <c r="AY46" s="10"/>
+      <c r="AZ46" s="10"/>
+      <c r="BA46" s="10"/>
+      <c r="BB46" s="10"/>
+      <c r="BC46" s="10"/>
+      <c r="BD46" s="10"/>
       <c r="CP46" s="5"/>
     </row>
     <row r="47" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7593,7 +7633,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
       <c r="K48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CP48" s="5"/>
     </row>
@@ -7601,75 +7641,19 @@
       <c r="B49" s="1"/>
       <c r="I49" s="5"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="10"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="10"/>
-      <c r="AK49" s="10"/>
-      <c r="AL49" s="10"/>
-      <c r="AM49" s="10"/>
-      <c r="AN49" s="10"/>
-      <c r="AO49" s="10"/>
-      <c r="AP49" s="10"/>
-      <c r="AQ49" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR49" s="10"/>
-      <c r="AS49" s="10"/>
-      <c r="AT49" s="10"/>
-      <c r="AU49" s="10"/>
-      <c r="AV49" s="10"/>
-      <c r="AW49" s="10"/>
-      <c r="AX49" s="10"/>
-      <c r="AY49" s="10"/>
-      <c r="AZ49" s="10"/>
-      <c r="BA49" s="10"/>
-      <c r="BB49" s="10"/>
-      <c r="BC49" s="10"/>
-      <c r="BD49" s="10"/>
       <c r="CP49" s="5"/>
     </row>
     <row r="50" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1"/>
       <c r="I50" s="5"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="10">
-        <v>1</v>
+      <c r="K50" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
-      <c r="O50" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
@@ -7683,9 +7667,7 @@
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
-      <c r="AC50" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
       <c r="AE50" s="10"/>
       <c r="AF50" s="10"/>
@@ -7699,9 +7681,7 @@
       <c r="AN50" s="10"/>
       <c r="AO50" s="10"/>
       <c r="AP50" s="10"/>
-      <c r="AQ50" s="10" t="s">
-        <v>58</v>
-      </c>
+      <c r="AQ50" s="10"/>
       <c r="AR50" s="10"/>
       <c r="AS50" s="10"/>
       <c r="AT50" s="10"/>
@@ -7709,27 +7689,60 @@
       <c r="AV50" s="10"/>
       <c r="AW50" s="10"/>
       <c r="AX50" s="10"/>
-      <c r="AY50" s="10"/>
-      <c r="AZ50" s="10"/>
-      <c r="BA50" s="10"/>
-      <c r="BB50" s="10"/>
-      <c r="BC50" s="10"/>
-      <c r="BD50" s="10"/>
       <c r="CP50" s="5"/>
     </row>
     <row r="51" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1"/>
       <c r="I51" s="5"/>
       <c r="J51" s="1"/>
+      <c r="K51" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="10"/>
+      <c r="AO51" s="10"/>
+      <c r="AP51" s="10"/>
+      <c r="AQ51" s="10"/>
+      <c r="AR51" s="10"/>
+      <c r="AS51" s="10"/>
+      <c r="AT51" s="10"/>
+      <c r="AU51" s="10"/>
+      <c r="AV51" s="10"/>
+      <c r="AW51" s="10"/>
+      <c r="AX51" s="10"/>
       <c r="CP51" s="5"/>
     </row>
     <row r="52" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1"/>
       <c r="I52" s="5"/>
       <c r="J52" s="1"/>
-      <c r="K52" t="s">
-        <v>50</v>
-      </c>
       <c r="CP52" s="5"/>
     </row>
     <row r="53" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7739,274 +7752,108 @@
       <c r="CP53" s="5"/>
     </row>
     <row r="54" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="1"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-      <c r="AD54" s="10"/>
-      <c r="AE54" s="10"/>
-      <c r="AF54" s="10"/>
-      <c r="AG54" s="10"/>
-      <c r="AH54" s="10"/>
-      <c r="AI54" s="10"/>
-      <c r="AJ54" s="10"/>
-      <c r="AK54" s="10"/>
-      <c r="AL54" s="10"/>
-      <c r="AM54" s="10"/>
-      <c r="AN54" s="10"/>
-      <c r="AO54" s="10"/>
-      <c r="AP54" s="10"/>
-      <c r="AQ54" s="10"/>
-      <c r="AR54" s="10"/>
-      <c r="AS54" s="10"/>
-      <c r="AT54" s="10"/>
-      <c r="AU54" s="10"/>
-      <c r="AV54" s="10"/>
-      <c r="AW54" s="10"/>
-      <c r="AX54" s="10"/>
-      <c r="CP54" s="5"/>
-    </row>
-    <row r="55" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="1"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
-      <c r="AD55" s="10"/>
-      <c r="AE55" s="10"/>
-      <c r="AF55" s="10"/>
-      <c r="AG55" s="10"/>
-      <c r="AH55" s="10"/>
-      <c r="AI55" s="10"/>
-      <c r="AJ55" s="10"/>
-      <c r="AK55" s="10"/>
-      <c r="AL55" s="10"/>
-      <c r="AM55" s="10"/>
-      <c r="AN55" s="10"/>
-      <c r="AO55" s="10"/>
-      <c r="AP55" s="10"/>
-      <c r="AQ55" s="10"/>
-      <c r="AR55" s="10"/>
-      <c r="AS55" s="10"/>
-      <c r="AT55" s="10"/>
-      <c r="AU55" s="10"/>
-      <c r="AV55" s="10"/>
-      <c r="AW55" s="10"/>
-      <c r="AX55" s="10"/>
-      <c r="CP55" s="5"/>
-    </row>
-    <row r="56" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="1"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="1"/>
-      <c r="CP56" s="5"/>
-    </row>
-    <row r="57" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="1"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="1"/>
-      <c r="CP57" s="5"/>
-    </row>
-    <row r="58" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="6" t="s">
+      <c r="B54" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="7"/>
-      <c r="AC58" s="7"/>
-      <c r="AD58" s="7"/>
-      <c r="AE58" s="7"/>
-      <c r="AF58" s="7"/>
-      <c r="AG58" s="7"/>
-      <c r="AH58" s="7"/>
-      <c r="AI58" s="7"/>
-      <c r="AJ58" s="7"/>
-      <c r="AK58" s="7"/>
-      <c r="AL58" s="7"/>
-      <c r="AM58" s="7"/>
-      <c r="AN58" s="7"/>
-      <c r="AO58" s="7"/>
-      <c r="AP58" s="7"/>
-      <c r="AQ58" s="7"/>
-      <c r="AR58" s="7"/>
-      <c r="AS58" s="7"/>
-      <c r="AT58" s="7"/>
-      <c r="AU58" s="7"/>
-      <c r="AV58" s="7"/>
-      <c r="AW58" s="7"/>
-      <c r="AX58" s="7"/>
-      <c r="AY58" s="7"/>
-      <c r="AZ58" s="7"/>
-      <c r="BA58" s="7"/>
-      <c r="BB58" s="7"/>
-      <c r="BC58" s="7"/>
-      <c r="BD58" s="7"/>
-      <c r="BE58" s="7"/>
-      <c r="BF58" s="7"/>
-      <c r="BG58" s="7"/>
-      <c r="BH58" s="7"/>
-      <c r="BI58" s="7"/>
-      <c r="BJ58" s="7"/>
-      <c r="BK58" s="7"/>
-      <c r="BL58" s="7"/>
-      <c r="BM58" s="7"/>
-      <c r="BN58" s="7"/>
-      <c r="BO58" s="7"/>
-      <c r="BP58" s="7"/>
-      <c r="BQ58" s="7"/>
-      <c r="BR58" s="7"/>
-      <c r="BS58" s="7"/>
-      <c r="BT58" s="7"/>
-      <c r="BU58" s="7"/>
-      <c r="BV58" s="7"/>
-      <c r="BW58" s="7"/>
-      <c r="BX58" s="7"/>
-      <c r="BY58" s="7"/>
-      <c r="BZ58" s="7"/>
-      <c r="CA58" s="7"/>
-      <c r="CB58" s="7"/>
-      <c r="CC58" s="7"/>
-      <c r="CD58" s="7"/>
-      <c r="CE58" s="7"/>
-      <c r="CF58" s="7"/>
-      <c r="CG58" s="7"/>
-      <c r="CH58" s="7"/>
-      <c r="CI58" s="7"/>
-      <c r="CJ58" s="7"/>
-      <c r="CK58" s="7"/>
-      <c r="CL58" s="7"/>
-      <c r="CM58" s="7"/>
-      <c r="CN58" s="7"/>
-      <c r="CO58" s="7"/>
-      <c r="CP58" s="8"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="7"/>
+      <c r="AP54" s="7"/>
+      <c r="AQ54" s="7"/>
+      <c r="AR54" s="7"/>
+      <c r="AS54" s="7"/>
+      <c r="AT54" s="7"/>
+      <c r="AU54" s="7"/>
+      <c r="AV54" s="7"/>
+      <c r="AW54" s="7"/>
+      <c r="AX54" s="7"/>
+      <c r="AY54" s="7"/>
+      <c r="AZ54" s="7"/>
+      <c r="BA54" s="7"/>
+      <c r="BB54" s="7"/>
+      <c r="BC54" s="7"/>
+      <c r="BD54" s="7"/>
+      <c r="BE54" s="7"/>
+      <c r="BF54" s="7"/>
+      <c r="BG54" s="7"/>
+      <c r="BH54" s="7"/>
+      <c r="BI54" s="7"/>
+      <c r="BJ54" s="7"/>
+      <c r="BK54" s="7"/>
+      <c r="BL54" s="7"/>
+      <c r="BM54" s="7"/>
+      <c r="BN54" s="7"/>
+      <c r="BO54" s="7"/>
+      <c r="BP54" s="7"/>
+      <c r="BQ54" s="7"/>
+      <c r="BR54" s="7"/>
+      <c r="BS54" s="7"/>
+      <c r="BT54" s="7"/>
+      <c r="BU54" s="7"/>
+      <c r="BV54" s="7"/>
+      <c r="BW54" s="7"/>
+      <c r="BX54" s="7"/>
+      <c r="BY54" s="7"/>
+      <c r="BZ54" s="7"/>
+      <c r="CA54" s="7"/>
+      <c r="CB54" s="7"/>
+      <c r="CC54" s="7"/>
+      <c r="CD54" s="7"/>
+      <c r="CE54" s="7"/>
+      <c r="CF54" s="7"/>
+      <c r="CG54" s="7"/>
+      <c r="CH54" s="7"/>
+      <c r="CI54" s="7"/>
+      <c r="CJ54" s="7"/>
+      <c r="CK54" s="7"/>
+      <c r="CL54" s="7"/>
+      <c r="CM54" s="7"/>
+      <c r="CN54" s="7"/>
+      <c r="CO54" s="7"/>
+      <c r="CP54" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="J34:CP34"/>
-    <mergeCell ref="AQ49:BD49"/>
-    <mergeCell ref="AQ50:BD50"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:AB49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:AB50"/>
-    <mergeCell ref="K45:AX45"/>
-    <mergeCell ref="K46:AX46"/>
-    <mergeCell ref="AC49:AP49"/>
-    <mergeCell ref="AC50:AP50"/>
-    <mergeCell ref="AC39:AX39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="O40:AB40"/>
-    <mergeCell ref="AC40:AX40"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="T29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:S25"/>
-    <mergeCell ref="T25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:S26"/>
-    <mergeCell ref="T26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:S27"/>
-    <mergeCell ref="T27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="T28:AO28"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="P20:AK20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="P21:AK21"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:S15"/>
-    <mergeCell ref="T15:AO15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="T16:AO16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:S13"/>
-    <mergeCell ref="T13:AO13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:S14"/>
-    <mergeCell ref="T14:AO14"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L4:AV4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:AV5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="L6:AV6"/>
-    <mergeCell ref="K54:AX54"/>
-    <mergeCell ref="K55:AX55"/>
+  <mergeCells count="67">
+    <mergeCell ref="K50:AX50"/>
+    <mergeCell ref="K51:AX51"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:S10"/>
     <mergeCell ref="T10:AO10"/>
@@ -8016,8 +7863,62 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:S12"/>
     <mergeCell ref="T12:AO12"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:AB39"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="O35:AB35"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:AV4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:AV5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:AV6"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:S13"/>
+    <mergeCell ref="T13:AO13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:S14"/>
+    <mergeCell ref="T14:AO14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:S15"/>
+    <mergeCell ref="T15:AO15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="T16:AO16"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:S21"/>
+    <mergeCell ref="T21:AO21"/>
+    <mergeCell ref="AP21:BJ21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:S22"/>
+    <mergeCell ref="T22:AO22"/>
+    <mergeCell ref="AP22:BJ22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:S23"/>
+    <mergeCell ref="T23:AO23"/>
+    <mergeCell ref="AP23:BJ23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:S24"/>
+    <mergeCell ref="T24:AO24"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:S25"/>
+    <mergeCell ref="T25:AO25"/>
+    <mergeCell ref="AP25:BJ25"/>
+    <mergeCell ref="J30:CP30"/>
+    <mergeCell ref="AQ45:BD45"/>
+    <mergeCell ref="AQ46:BD46"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="O45:AB45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="O46:AB46"/>
+    <mergeCell ref="K41:AX41"/>
+    <mergeCell ref="K42:AX42"/>
+    <mergeCell ref="AC45:AP45"/>
+    <mergeCell ref="AC46:AP46"/>
+    <mergeCell ref="AC35:AX35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="O36:AB36"/>
+    <mergeCell ref="AC36:AX36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
